--- a/BQCP24h/templates/agricole.xlsx
+++ b/BQCP24h/templates/agricole.xlsx
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D3" s="10" t="n">
-        <v>236.6</v>
+        <v>239.6</v>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="D4" s="10" t="n">
-        <v>171.3</v>
+        <v>174.3</v>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B5" s="10" t="n">
-        <v>195.8</v>
+        <v>204.8</v>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B6" s="10" t="n">
-        <v>167.3</v>
+        <v>173.3</v>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="F7" s="10" t="n">
-        <v>845.3000000000001</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B8" s="10" t="n">
-        <v>177.4</v>
+        <v>177.1</v>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="D11" s="10" t="n">
-        <v>9.399999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D12" s="10" t="n">
-        <v>494.6</v>
+        <v>497.6</v>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="F12" s="10" t="n">
-        <v>201.5</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="13">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="F13" s="8" t="n">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="1">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>459.6</v>
+        <v>460.2</v>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
